--- a/接口文档/模板内容api/模板内容api.xlsx
+++ b/接口文档/模板内容api/模板内容api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="82">
   <si>
     <t>功能说明：</t>
   </si>
@@ -316,6 +316,10 @@
   </si>
   <si>
     <t>/api/model_content/v1/plan/one/{id}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1144,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2254,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2295,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2320,10 +2324,16 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">

--- a/接口文档/模板内容api/模板内容api.xlsx
+++ b/接口文档/模板内容api/模板内容api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="商户端-查询当前店铺下的所有方案" sheetId="42" r:id="rId11"/>
     <sheet name="商户端-修改方案" sheetId="43" r:id="rId12"/>
     <sheet name="商户端-删除方案" sheetId="44" r:id="rId13"/>
+    <sheet name="方案预览" sheetId="47" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="84">
   <si>
     <t>功能说明：</t>
   </si>
@@ -320,6 +321,15 @@
   </si>
   <si>
     <t>POST</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">方案预览
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/model_content/v1/showPlan</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2092,6 +2102,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="23"/>
+      <c r="B14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F1" location="首页API目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
@@ -2258,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/接口文档/模板内容api/模板内容api.xlsx
+++ b/接口文档/模板内容api/模板内容api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="商户端-修改方案" sheetId="43" r:id="rId12"/>
     <sheet name="商户端-删除方案" sheetId="44" r:id="rId13"/>
     <sheet name="方案预览" sheetId="47" r:id="rId14"/>
+    <sheet name="商户端-查询所有模板" sheetId="49" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="91">
   <si>
     <t>功能说明：</t>
   </si>
@@ -330,6 +331,33 @@
   </si>
   <si>
     <t>/api/model_content/v1/showPlan</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查询所有模板
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/model_content/v1/template/all</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>picturePath</t>
+  </si>
+  <si>
+    <t>filePath</t>
+  </si>
+  <si>
+    <t>模板内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板路径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户端-查询所有模板</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2106,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2275,6 +2303,213 @@
       </c>
       <c r="E13" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="23"/>
+      <c r="B14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F1" location="首页API目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -2327,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2399,7 +2634,9 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="17" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -2479,6 +2716,7 @@
     <hyperlink ref="A8" location="'商户端-查询当前店铺下的所有方案'!A1" display="商户端-查询当前店铺下的所有方案"/>
     <hyperlink ref="A9" location="'商户端-修改方案'!A1" display="商户端-修改方案"/>
     <hyperlink ref="A10" location="'商户端-删除方案'!A1" display="商户端-删除方案"/>
+    <hyperlink ref="A11" location="'商户端-查询所有模板'!A1" display="商户端-查询所有模板"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/接口文档/模板内容api/模板内容api.xlsx
+++ b/接口文档/模板内容api/模板内容api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="92">
   <si>
     <t>功能说明：</t>
   </si>
@@ -358,6 +358,11 @@
   </si>
   <si>
     <t>商户端-查询所有模板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户首页：
+首页静态化：</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +582,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +684,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1187,7 +1201,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2562,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2725,10 +2739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2925,8 +2939,125 @@
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B17:E35"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="B1:E1"/>
